--- a/Physics/assignment/141019 김연우 7교시 물리학 과제.xlsx
+++ b/Physics/assignment/141019 김연우 7교시 물리학 과제.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozt\Desktop\ozt\git\NEXT_14_SECOND\Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozt\Desktop\ozt\git\NEXT_14_SECOND\Physics\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="숙제 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>1. 총알이 박힌 직후의 막대 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,7 +176,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>첫 충돌시 속도</t>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알의 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 충돌시 합친 물체의 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,35 +702,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>400</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -721,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -732,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -740,7 +761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -751,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1.2</v>
       </c>
@@ -762,7 +783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -774,19 +795,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3">
         <f>C2*C4/C10</f>
-        <v>364.58333333333331</v>
+        <v>104166.66666666667</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
@@ -798,14 +819,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -837,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>0.04</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -890,14 +920,14 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>0.04</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22">
         <f>G22/C22</f>
-        <v>75</v>
+        <v>65.217391304347828</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
@@ -911,7 +941,8 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
-        <v>75</v>
+        <f>E22</f>
+        <v>65.217391304347828</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
@@ -980,7 +1011,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -990,6 +1021,20 @@
       </c>
       <c r="C35" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <f>B35*(C27+C28)/C27</f>
+        <v>273.25202042558931</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
